--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/MENU-TOP-1005-zero.personal.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/MENU-TOP-1005-zero.personal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5C896-426C-AA49-81D2-0FF0218A88AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F384FB0-1826-B84E-B86B-14578B72813B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="12920" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,8 @@
     <t>logout</t>
   </si>
   <si>
-    <t>{"function":"fnLogout"}</t>
+    <t>JSON:action/menu.top/zero.personal.logout.json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -617,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
@@ -631,8 +632,8 @@
     <col min="6" max="6" width="43.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="64.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
